--- a/frontend/modules/reports/modules/lab/templates/MICRO_DENR.xlsx
+++ b/frontend/modules/reports/modules/lab/templates/MICRO_DENR.xlsx
@@ -55,21 +55,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">                                                                          </t>
     </r>
     <r>
@@ -144,6 +129,21 @@
   </si>
   <si>
     <t xml:space="preserve">                                           • This report is based on the samples received by this office and should not be used for advertising purposes or sales </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +447,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -459,7 +460,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -917,13 +918,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -932,13 +933,13 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -947,13 +948,13 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -962,13 +963,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -977,13 +978,13 @@
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -992,11 +993,11 @@
       <c r="K5" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="19"/>
@@ -1009,7 +1010,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="1"/>
@@ -1022,7 +1023,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="1"/>
@@ -1034,7 +1035,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="1"/>
@@ -1046,7 +1047,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="20"/>
@@ -1059,19 +1060,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="32" t="str">
         <f>UPPER(B7)</f>
@@ -1095,13 +1096,13 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -1150,13 +1151,13 @@
     <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1181,13 +1182,13 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1197,32 +1198,32 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1235,7 +1236,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1255,7 +1256,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1275,7 +1276,10 @@
       <c r="C48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>

--- a/frontend/modules/reports/modules/lab/templates/MICRO_DENR.xlsx
+++ b/frontend/modules/reports/modules/lab/templates/MICRO_DENR.xlsx
@@ -55,6 +55,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">                                                                          </t>
     </r>
     <r>
@@ -129,21 +144,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                           • This report is based on the samples received by this office and should not be used for advertising purposes or sales </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Regional Standards and Testing Laboratories </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,7 +447,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -460,7 +459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -918,13 +917,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -933,13 +932,13 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -948,13 +947,13 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -963,13 +962,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -978,13 +977,13 @@
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -993,11 +992,11 @@
       <c r="K5" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="19"/>
@@ -1010,7 +1009,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="1"/>
@@ -1023,7 +1022,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="1"/>
@@ -1035,7 +1034,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="1"/>
@@ -1047,7 +1046,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="20"/>
@@ -1060,19 +1059,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="32" t="str">
         <f>UPPER(B7)</f>
@@ -1096,13 +1095,13 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="A18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -1151,13 +1150,13 @@
     <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1182,13 +1181,13 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1198,32 +1197,32 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1236,7 +1235,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1255,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1276,10 +1275,7 @@
       <c r="C48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="5">
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
